--- a/Customer_Churn_Analysis.xlsx
+++ b/Customer_Churn_Analysis.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29629"/>
   <workbookPr hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="862" documentId="11_EF835E36C76C8CCEEB3B98154B5DCE3A17C774D7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B911DCAF-BC54-4945-AC87-4C3462F56732}"/>
+  <xr:revisionPtr revIDLastSave="888" documentId="11_EF835E36C76C8CCEEB3B98154B5DCE3A17C774D7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7E6EC88-61E4-4E34-9326-856860CA2AC7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboards" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3675" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3639" uniqueCount="536">
   <si>
     <t>Dashboards</t>
   </si>
@@ -1543,7 +1543,7 @@
     <t>Active users churn the least (37.5%), while both inactive (51.28%) and unknown users (52.07%) show significantly higher churn. This confirms that engagement is the strongest predictor of retention, and missing activity data represents a critical risk group.</t>
   </si>
   <si>
-    <t xml:space="preserve">⭐DOCUMENTATION </t>
+    <t xml:space="preserve">DOCUMENTATION </t>
   </si>
   <si>
     <t>1. Dataset Overview</t>
@@ -1980,114 +1980,12 @@
   <si>
     <t>• Customer behavior depends on date of extraction; dataset seems historical</t>
   </si>
-  <si>
-    <t>DATA SUMMARY TABLE</t>
-  </si>
-  <si>
-    <t>Metric</t>
-  </si>
-  <si>
-    <t>How To Calculate</t>
-  </si>
-  <si>
-    <t>=COUNTA(CleanedData!A:A)</t>
-  </si>
-  <si>
-    <t>Total Active Users</t>
-  </si>
-  <si>
-    <t>Count “Active” in Activity Status</t>
-  </si>
-  <si>
-    <t>Total Inactive Users</t>
-  </si>
-  <si>
-    <t>Count “Inactive” in Activity Status</t>
-  </si>
-  <si>
-    <t>Unknown Activity</t>
-  </si>
-  <si>
-    <t>Count “Unknown” in Activity Status</t>
-  </si>
-  <si>
-    <t>Average Monthly Spend</t>
-  </si>
-  <si>
-    <t>=AVERAGE(CleanedData![Monthly Spend])</t>
-  </si>
-  <si>
-    <t>Median Monthly Spend</t>
-  </si>
-  <si>
-    <t>=MEDIAN(CleanedData![Monthly Spend])</t>
-  </si>
-  <si>
-    <t>Average Tenure (Months)</t>
-  </si>
-  <si>
-    <t>=AVERAGE(CleanedData![Tenure])</t>
-  </si>
-  <si>
-    <t>Churned Customers</t>
-  </si>
-  <si>
-    <t>Count “Yes” in Churn</t>
-  </si>
-  <si>
-    <t>Retained Customers</t>
-  </si>
-  <si>
-    <t>Count “No” in Churn</t>
-  </si>
-  <si>
-    <t>Churn Rate (%)</t>
-  </si>
-  <si>
-    <t>=Churned / Total Customers</t>
-  </si>
-  <si>
-    <t>High Spend Users</t>
-  </si>
-  <si>
-    <t>Count “High” in Spend Category</t>
-  </si>
-  <si>
-    <t>Medium Spend Users</t>
-  </si>
-  <si>
-    <t>Count “Medium” in Spend Category</t>
-  </si>
-  <si>
-    <t>Low Spend Users</t>
-  </si>
-  <si>
-    <t>Count “Low” in Spend Category</t>
-  </si>
-  <si>
-    <t>Basic Plan Users</t>
-  </si>
-  <si>
-    <t>Count “Basic” in Subscription Type</t>
-  </si>
-  <si>
-    <t>Pro Plan Users</t>
-  </si>
-  <si>
-    <t>Count “Pro” in Subscription Type</t>
-  </si>
-  <si>
-    <t>Premium Plan Users</t>
-  </si>
-  <si>
-    <t>Count “Premium” in Subscription Type</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2184,22 +2082,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2213,6 +2095,13 @@
       <color theme="1"/>
       <name val="Cambria"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2491,7 +2380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2567,17 +2456,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2603,10 +2481,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2618,6 +2496,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2644,9 +2525,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2657,7 +2535,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2679,40 +2557,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <b val="0"/>
@@ -11938,46 +11794,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F2CA36CC-2A4D-4169-8A12-1309131DCFA4}" name="Table3" displayName="Table3" ref="B3:C9" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" headerRowBorderDxfId="23" tableBorderDxfId="24" totalsRowBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F2CA36CC-2A4D-4169-8A12-1309131DCFA4}" name="Table3" displayName="Table3" ref="B3:C9" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19" totalsRowBorderDxfId="17">
   <autoFilter ref="B3:C9" xr:uid="{F2CA36CC-2A4D-4169-8A12-1309131DCFA4}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6AD681A7-0317-49B2-8524-A4276811F112}" name="               KPI" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{CF38A0A6-A038-4465-B693-255E2C21839E}" name="                Value" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{6AD681A7-0317-49B2-8524-A4276811F112}" name="               KPI" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{CF38A0A6-A038-4465-B693-255E2C21839E}" name="                Value" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{620F4F03-7694-4CCE-AD08-2649C05DB0C8}" name="Table1" displayName="Table1" ref="A4:K298" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" headerRowBorderDxfId="16" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{620F4F03-7694-4CCE-AD08-2649C05DB0C8}" name="Table1" displayName="Table1" ref="A4:K298" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12">
   <autoFilter ref="A4:K298" xr:uid="{620F4F03-7694-4CCE-AD08-2649C05DB0C8}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{31D0ED16-E93E-4F04-98F8-B96FFE25A945}" name="Customer ID" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{B0F0D147-473B-4FFD-837F-F594DA3BA570}" name="Tenure Months" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{1AE07C31-6928-430F-AB58-C4FFEB2A9601}" name="Tenure Category" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{754C4FFE-C75C-49C2-86FD-2E6664393C26}" name="Monthly Spend" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{8D63F87D-1408-452A-958D-39A0A7B64B5F}" name="Spend Category" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{2FF06C9A-5A12-4C32-B579-ED3688CF34D2}" name="Issues Logged" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{81A50591-AEE6-4CF9-8429-55952944BB75}" name="Last Login" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{176868A9-F060-4BF3-8F91-81C64DEE73D5}" name="Date Since Last Login" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{2908CA4E-10ED-4A52-B44A-03FC8B98403C}" name="Activity Status" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{F9A8CB22-3F5D-439C-9358-0AD89E9508C1}" name="Subscription Type" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{2C681B83-11F9-4F0A-87F3-F5A9ABC85653}" name="Churn" dataDxfId="5"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0A74A7B4-0FA9-4C6E-A209-1B585BFF1B17}" name="Table2" displayName="Table2" ref="A78:C94" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A78:C94" xr:uid="{0A74A7B4-0FA9-4C6E-A209-1B585BFF1B17}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{DFBC4E1D-F498-44E8-BE18-92546A22714B}" name="Metric" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{841683A3-9491-4D74-A0A8-AACF81ADF191}" name="Value" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{DCB62524-4EA1-44D9-89D0-EFC1AE0E9377}" name="How To Calculate" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{31D0ED16-E93E-4F04-98F8-B96FFE25A945}" name="Customer ID" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{B0F0D147-473B-4FFD-837F-F594DA3BA570}" name="Tenure Months" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{1AE07C31-6928-430F-AB58-C4FFEB2A9601}" name="Tenure Category" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{754C4FFE-C75C-49C2-86FD-2E6664393C26}" name="Monthly Spend" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{8D63F87D-1408-452A-958D-39A0A7B64B5F}" name="Spend Category" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{2FF06C9A-5A12-4C32-B579-ED3688CF34D2}" name="Issues Logged" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{81A50591-AEE6-4CF9-8429-55952944BB75}" name="Last Login" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{176868A9-F060-4BF3-8F91-81C64DEE73D5}" name="Date Since Last Login" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{2908CA4E-10ED-4A52-B44A-03FC8B98403C}" name="Activity Status" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{F9A8CB22-3F5D-439C-9358-0AD89E9508C1}" name="Subscription Type" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{2C681B83-11F9-4F0A-87F3-F5A9ABC85653}" name="Churn" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12270,7 +12114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36432D7F-DA37-41A4-BDB8-404AF7F28B2B}">
   <dimension ref="B1:J1313"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
@@ -12281,77 +12125,77 @@
     <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="37" customFormat="1" ht="27" customHeight="1">
-      <c r="C1" s="60" t="s">
+    <row r="1" spans="2:8" s="32" customFormat="1" ht="27" customHeight="1">
+      <c r="C1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="43" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="13.5" customHeight="1">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="38">
         <v>305</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="13.5" customHeight="1">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="39">
         <v>0.51359999999999995</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15" customHeight="1">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="39">
         <v>0.4864</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="13.5" customHeight="1">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="39">
         <v>0.375</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="39">
         <v>0.51280000000000003</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="15" customHeight="1">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="41" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="1023" spans="8:10">
-      <c r="H1023" s="41" t="s">
+      <c r="H1023" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="J1023" s="41" t="s">
+      <c r="J1023" s="36" t="s">
         <v>11</v>
       </c>
     </row>
@@ -12359,7 +12203,7 @@
       <c r="H1024" t="s">
         <v>12</v>
       </c>
-      <c r="J1024" s="35">
+      <c r="J1024" s="30">
         <v>0.48648648648648651</v>
       </c>
     </row>
@@ -12367,7 +12211,7 @@
       <c r="H1025" t="s">
         <v>13</v>
       </c>
-      <c r="J1025" s="35">
+      <c r="J1025" s="30">
         <v>0.55952380952380953</v>
       </c>
     </row>
@@ -12375,15 +12219,15 @@
       <c r="H1026" t="s">
         <v>14</v>
       </c>
-      <c r="J1026" s="35">
+      <c r="J1026" s="30">
         <v>0.50505050505050508</v>
       </c>
     </row>
     <row r="1141" spans="4:6">
-      <c r="D1141" s="41" t="s">
+      <c r="D1141" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F1141" s="41" t="s">
+      <c r="F1141" s="36" t="s">
         <v>11</v>
       </c>
     </row>
@@ -12391,7 +12235,7 @@
       <c r="D1142" t="s">
         <v>16</v>
       </c>
-      <c r="F1142" s="35">
+      <c r="F1142" s="30">
         <v>0.5636363636363636</v>
       </c>
     </row>
@@ -12399,7 +12243,7 @@
       <c r="D1143" t="s">
         <v>17</v>
       </c>
-      <c r="F1143" s="35">
+      <c r="F1143" s="30">
         <v>0.48484848484848486</v>
       </c>
     </row>
@@ -12407,7 +12251,7 @@
       <c r="D1144" t="s">
         <v>18</v>
       </c>
-      <c r="F1144" s="35">
+      <c r="F1144" s="30">
         <v>0.55555555555555558</v>
       </c>
     </row>
@@ -12415,15 +12259,15 @@
       <c r="D1145" t="s">
         <v>19</v>
       </c>
-      <c r="F1145" s="35">
+      <c r="F1145" s="30">
         <v>0.5025380710659898</v>
       </c>
     </row>
     <row r="1310" spans="3:4">
-      <c r="C1310" s="41" t="s">
+      <c r="C1310" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D1310" s="41" t="s">
+      <c r="D1310" s="36" t="s">
         <v>11</v>
       </c>
     </row>
@@ -12431,7 +12275,7 @@
       <c r="C1311" t="s">
         <v>21</v>
       </c>
-      <c r="D1311" s="35">
+      <c r="D1311" s="30">
         <v>0.375</v>
       </c>
     </row>
@@ -12439,7 +12283,7 @@
       <c r="C1312" t="s">
         <v>22</v>
       </c>
-      <c r="D1312" s="35">
+      <c r="D1312" s="30">
         <v>0.51282051282051277</v>
       </c>
     </row>
@@ -12447,7 +12291,7 @@
       <c r="C1313" t="s">
         <v>19</v>
       </c>
-      <c r="D1313" s="35">
+      <c r="D1313" s="30">
         <v>0.52071005917159763</v>
       </c>
     </row>
@@ -12468,10 +12312,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12484,254 +12328,260 @@
     <col min="6" max="6" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:6" ht="30.75" customHeight="1">
+      <c r="C1" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="63" t="s">
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="49"/>
+    </row>
+    <row r="2" spans="1:6" s="71" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="49" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="44" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1">
-      <c r="A5" s="61" t="s">
+    <row r="6" spans="1:6" ht="30" customHeight="1">
+      <c r="A6" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="49" t="s">
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="44" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="64" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="64"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="64"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="64"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1">
-      <c r="A13" s="64"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="64"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="59"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1">
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="64"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="64"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="53" t="s">
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B20" s="48" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="50" t="s">
+    <row r="21" spans="1:6">
+      <c r="A21" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="51">
+      <c r="B21" s="46">
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="50" t="s">
+    <row r="22" spans="1:6">
+      <c r="A22" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="52">
+      <c r="B22" s="47">
         <v>0.51359999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="50" t="s">
+    <row r="23" spans="1:6">
+      <c r="A23" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="52">
+      <c r="B23" s="47">
         <v>0.4864</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="50" t="s">
+    <row r="24" spans="1:6">
+      <c r="A24" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="52">
+      <c r="B24" s="47">
         <v>0.375</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="50" t="s">
+    <row r="25" spans="1:6">
+      <c r="A25" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="52">
+      <c r="B25" s="47">
         <v>0.51280000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="50" t="s">
+    <row r="26" spans="1:6">
+      <c r="A26" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B26" s="46" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="49" t="s">
+    <row r="29" spans="1:6">
+      <c r="A29" s="44" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="61" t="s">
+    <row r="30" spans="1:6">
+      <c r="A30" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="65"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="65"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
+      <c r="A31" s="60"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="49" t="s">
+      <c r="A32" s="60"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="60"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="44" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="61" t="s">
+    <row r="37" spans="1:6">
+      <c r="A37" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="61"/>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="61"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="61"/>
-      <c r="B39" s="61"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
+      <c r="A39" s="57"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="57"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A36:F39"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A9:F16"/>
-    <mergeCell ref="A29:F32"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A37:F40"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A10:F17"/>
+    <mergeCell ref="A30:F33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -12742,7 +12592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B7627C-09E6-46A8-B095-2B020DEA6BDE}">
   <dimension ref="A1:K298"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -12762,47 +12612,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5">
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="4" spans="1:11" ht="31.5">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="40" t="s">
+      <c r="K4" s="35" t="s">
         <v>46</v>
       </c>
     </row>
@@ -23127,12 +22977,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.5">
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="61" t="s">
         <v>347</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
@@ -27924,24 +27774,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27.75" customHeight="1">
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="61" t="s">
         <v>473</v>
       </c>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="58" t="s">
         <v>474</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="29" t="s">
         <v>46</v>
       </c>
       <c r="B5" t="s">
@@ -27952,7 +27802,7 @@
       <c r="A6" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="30">
         <v>0.48639455782312924</v>
       </c>
     </row>
@@ -27960,7 +27810,7 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="30">
         <v>0.51360544217687076</v>
       </c>
     </row>
@@ -27968,46 +27818,46 @@
       <c r="A8" t="s">
         <v>476</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="62" t="s">
         <v>477</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="67"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="58" t="s">
         <v>478</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="29" t="s">
         <v>475</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="29" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B16" t="s">
@@ -28024,13 +27874,13 @@
       <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="35">
+      <c r="B17" s="30">
         <v>0.51351351351351349</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="30">
         <v>0.48648648648648651</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="30">
         <v>1</v>
       </c>
     </row>
@@ -28038,13 +27888,13 @@
       <c r="A18" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="35">
+      <c r="B18" s="30">
         <v>0.44047619047619047</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="30">
         <v>0.55952380952380953</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="30">
         <v>1</v>
       </c>
     </row>
@@ -28052,56 +27902,56 @@
       <c r="A19" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="30">
         <v>0.49494949494949497</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="30">
         <v>0.50505050505050508</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="67" t="s">
+      <c r="A21" s="62" t="s">
         <v>479</v>
       </c>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="67"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="68" t="s">
+      <c r="A24" s="63" t="s">
         <v>480</v>
       </c>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="29" t="s">
         <v>475</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="29" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B27" t="s">
@@ -28118,13 +27968,13 @@
       <c r="A28" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="35">
+      <c r="B28" s="30">
         <v>0.43636363636363634</v>
       </c>
-      <c r="C28" s="35">
+      <c r="C28" s="30">
         <v>0.5636363636363636</v>
       </c>
-      <c r="D28" s="35">
+      <c r="D28" s="30">
         <v>1</v>
       </c>
     </row>
@@ -28132,13 +27982,13 @@
       <c r="A29" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="35">
+      <c r="B29" s="30">
         <v>0.51515151515151514</v>
       </c>
-      <c r="C29" s="35">
+      <c r="C29" s="30">
         <v>0.48484848484848486</v>
       </c>
-      <c r="D29" s="35">
+      <c r="D29" s="30">
         <v>1</v>
       </c>
     </row>
@@ -28146,13 +27996,13 @@
       <c r="A30" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="35">
+      <c r="B30" s="30">
         <v>0.44444444444444442</v>
       </c>
-      <c r="C30" s="35">
+      <c r="C30" s="30">
         <v>0.55555555555555558</v>
       </c>
-      <c r="D30" s="35">
+      <c r="D30" s="30">
         <v>1</v>
       </c>
     </row>
@@ -28160,13 +28010,13 @@
       <c r="A31" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="35">
+      <c r="B31" s="30">
         <v>0.49746192893401014</v>
       </c>
-      <c r="C31" s="35">
+      <c r="C31" s="30">
         <v>0.5025380710659898</v>
       </c>
-      <c r="D31" s="35">
+      <c r="D31" s="30">
         <v>1</v>
       </c>
     </row>
@@ -28174,58 +28024,58 @@
       <c r="A32" t="s">
         <v>476</v>
       </c>
-      <c r="B32" s="35">
+      <c r="B32" s="30">
         <v>0.48639455782312924</v>
       </c>
-      <c r="C32" s="35">
+      <c r="C32" s="30">
         <v>0.51360544217687076</v>
       </c>
-      <c r="D32" s="35">
+      <c r="D32" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="67" t="s">
+      <c r="A34" s="62" t="s">
         <v>481</v>
       </c>
-      <c r="B34" s="67"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="67"/>
-      <c r="B35" s="67"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67"/>
-      <c r="I35" s="67"/>
+      <c r="A35" s="62"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="69" t="s">
+      <c r="A37" s="64" t="s">
         <v>482</v>
       </c>
-      <c r="B37" s="69"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="34" t="s">
+      <c r="A39" s="29" t="s">
         <v>475</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="29" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="29" t="s">
         <v>42</v>
       </c>
       <c r="B40" t="s">
@@ -28242,13 +28092,13 @@
       <c r="A41" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="35">
+      <c r="B41" s="30">
         <v>0.46666666666666667</v>
       </c>
-      <c r="C41" s="35">
+      <c r="C41" s="30">
         <v>0.53333333333333333</v>
       </c>
-      <c r="D41" s="35">
+      <c r="D41" s="30">
         <v>1</v>
       </c>
     </row>
@@ -28256,13 +28106,13 @@
       <c r="A42" t="s">
         <v>54</v>
       </c>
-      <c r="B42" s="35">
+      <c r="B42" s="30">
         <v>0.4375</v>
       </c>
-      <c r="C42" s="35">
+      <c r="C42" s="30">
         <v>0.5625</v>
       </c>
-      <c r="D42" s="35">
+      <c r="D42" s="30">
         <v>1</v>
       </c>
     </row>
@@ -28270,13 +28120,13 @@
       <c r="A43" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="35">
+      <c r="B43" s="30">
         <v>0.62857142857142856</v>
       </c>
-      <c r="C43" s="35">
+      <c r="C43" s="30">
         <v>0.37142857142857144</v>
       </c>
-      <c r="D43" s="35">
+      <c r="D43" s="30">
         <v>1</v>
       </c>
     </row>
@@ -28284,13 +28134,13 @@
       <c r="A44" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="35">
+      <c r="B44" s="30">
         <v>0.47368421052631576</v>
       </c>
-      <c r="C44" s="35">
+      <c r="C44" s="30">
         <v>0.52631578947368418</v>
       </c>
-      <c r="D44" s="35">
+      <c r="D44" s="30">
         <v>1</v>
       </c>
     </row>
@@ -28298,62 +28148,62 @@
       <c r="A45" t="s">
         <v>476</v>
       </c>
-      <c r="B45" s="35">
+      <c r="B45" s="30">
         <v>0.48639455782312924</v>
       </c>
-      <c r="C45" s="35">
+      <c r="C45" s="30">
         <v>0.51360544217687076</v>
       </c>
-      <c r="D45" s="35">
+      <c r="D45" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="67" t="s">
+      <c r="A47" s="62" t="s">
         <v>483</v>
       </c>
-      <c r="B47" s="67"/>
-      <c r="C47" s="67"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="67"/>
-      <c r="I47" s="67"/>
-      <c r="J47" s="67"/>
-      <c r="K47" s="67"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="62"/>
+      <c r="J47" s="62"/>
+      <c r="K47" s="62"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="67"/>
-      <c r="B48" s="67"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="67"/>
-      <c r="J48" s="67"/>
-      <c r="K48" s="67"/>
+      <c r="A48" s="62"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="62"/>
+      <c r="I48" s="62"/>
+      <c r="J48" s="62"/>
+      <c r="K48" s="62"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="69" t="s">
+      <c r="A50" s="64" t="s">
         <v>484</v>
       </c>
-      <c r="B50" s="69"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="69"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="34" t="s">
+      <c r="A52" s="29" t="s">
         <v>475</v>
       </c>
-      <c r="B52" s="34" t="s">
+      <c r="B52" s="29" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="34" t="s">
+      <c r="A53" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B53" t="s">
@@ -28370,13 +28220,13 @@
       <c r="A54" t="s">
         <v>21</v>
       </c>
-      <c r="B54" s="35">
+      <c r="B54" s="30">
         <v>0.625</v>
       </c>
-      <c r="C54" s="35">
+      <c r="C54" s="30">
         <v>0.375</v>
       </c>
-      <c r="D54" s="35">
+      <c r="D54" s="30">
         <v>1</v>
       </c>
     </row>
@@ -28384,13 +28234,13 @@
       <c r="A55" t="s">
         <v>22</v>
       </c>
-      <c r="B55" s="35">
+      <c r="B55" s="30">
         <v>0.48717948717948717</v>
       </c>
-      <c r="C55" s="35">
+      <c r="C55" s="30">
         <v>0.51282051282051277</v>
       </c>
-      <c r="D55" s="35">
+      <c r="D55" s="30">
         <v>1</v>
       </c>
     </row>
@@ -28398,13 +28248,13 @@
       <c r="A56" t="s">
         <v>19</v>
       </c>
-      <c r="B56" s="35">
+      <c r="B56" s="30">
         <v>0.47928994082840237</v>
       </c>
-      <c r="C56" s="35">
+      <c r="C56" s="30">
         <v>0.52071005917159763</v>
       </c>
-      <c r="D56" s="35">
+      <c r="D56" s="30">
         <v>1</v>
       </c>
     </row>
@@ -28412,41 +28262,41 @@
       <c r="A57" t="s">
         <v>476</v>
       </c>
-      <c r="B57" s="35">
+      <c r="B57" s="30">
         <v>0.48639455782312924</v>
       </c>
-      <c r="C57" s="35">
+      <c r="C57" s="30">
         <v>0.51360544217687076</v>
       </c>
-      <c r="D57" s="35">
+      <c r="D57" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="67" t="s">
+      <c r="A59" s="62" t="s">
         <v>485</v>
       </c>
-      <c r="B59" s="67"/>
-      <c r="C59" s="67"/>
-      <c r="D59" s="67"/>
-      <c r="E59" s="67"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="67"/>
-      <c r="H59" s="67"/>
-      <c r="I59" s="67"/>
-      <c r="J59" s="67"/>
+      <c r="B59" s="62"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="62"/>
+      <c r="E59" s="62"/>
+      <c r="F59" s="62"/>
+      <c r="G59" s="62"/>
+      <c r="H59" s="62"/>
+      <c r="I59" s="62"/>
+      <c r="J59" s="62"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="67"/>
-      <c r="B60" s="67"/>
-      <c r="C60" s="67"/>
-      <c r="D60" s="67"/>
-      <c r="E60" s="67"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="67"/>
-      <c r="H60" s="67"/>
-      <c r="I60" s="67"/>
-      <c r="J60" s="67"/>
+      <c r="A60" s="62"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="62"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="62"/>
+      <c r="H60" s="62"/>
+      <c r="I60" s="62"/>
+      <c r="J60" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -28470,8 +28320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD4B869-B5C5-4C39-9F1D-FD5246FE6871}">
   <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:B81"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28483,23 +28333,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5">
-      <c r="A1" s="55"/>
-      <c r="B1" s="71" t="s">
+      <c r="A1" s="51"/>
+      <c r="B1" s="66" t="s">
         <v>486</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
@@ -28514,314 +28364,314 @@
       <c r="A3" s="21" t="s">
         <v>487</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="A4" s="21"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" ht="16.5">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="53" t="s">
         <v>488</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
     </row>
     <row r="6" spans="1:11" ht="15.75">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="65" t="s">
         <v>489</v>
       </c>
-      <c r="B6" s="70"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
     </row>
     <row r="7" spans="1:11" ht="16.5">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="52" t="s">
         <v>490</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="65" t="s">
         <v>491</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A9" s="70"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
     </row>
     <row r="10" spans="1:11" ht="15.75">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="65" t="s">
         <v>492</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
     </row>
     <row r="12" spans="1:11" ht="23.25">
       <c r="A12" s="21" t="s">
         <v>493</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
     </row>
     <row r="14" spans="1:11" ht="18">
       <c r="A14" s="22" t="s">
         <v>494</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1">
       <c r="A15" s="22"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
     </row>
     <row r="16" spans="1:11" ht="15.75">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="65" t="s">
         <v>495</v>
       </c>
-      <c r="B16" s="70"/>
+      <c r="B16" s="65"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
     </row>
     <row r="17" spans="1:3" ht="15.75">
-      <c r="A17" s="70" t="s">
+      <c r="A17" s="65" t="s">
         <v>496</v>
       </c>
-      <c r="B17" s="70"/>
+      <c r="B17" s="65"/>
       <c r="C17" s="25"/>
     </row>
     <row r="18" spans="1:3" ht="15.75">
-      <c r="A18" s="74" t="s">
+      <c r="A18" s="69" t="s">
         <v>497</v>
       </c>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="55"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
     </row>
     <row r="20" spans="1:3" ht="18">
       <c r="A20" s="22" t="s">
         <v>498</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
     </row>
     <row r="21" spans="1:3" ht="12.75" customHeight="1">
       <c r="A21" s="22"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
     </row>
     <row r="22" spans="1:3" ht="15.75">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="67" t="s">
         <v>499</v>
       </c>
-      <c r="B22" s="73"/>
-      <c r="C22" s="55"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="51"/>
     </row>
     <row r="23" spans="1:3" ht="16.5">
       <c r="A23" s="28" t="s">
         <v>500</v>
       </c>
       <c r="B23" s="25"/>
-      <c r="C23" s="55"/>
+      <c r="C23" s="51"/>
     </row>
     <row r="24" spans="1:3" ht="16.5">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="54" t="s">
         <v>501</v>
       </c>
       <c r="B24" s="25"/>
-      <c r="C24" s="55"/>
+      <c r="C24" s="51"/>
     </row>
     <row r="25" spans="1:3" ht="16.5">
       <c r="A25" s="28" t="s">
         <v>502</v>
       </c>
       <c r="B25" s="25"/>
-      <c r="C25" s="55"/>
+      <c r="C25" s="51"/>
     </row>
     <row r="26" spans="1:3" ht="15.75">
-      <c r="A26" s="74" t="s">
+      <c r="A26" s="69" t="s">
         <v>503</v>
       </c>
-      <c r="B26" s="74"/>
-      <c r="C26" s="55"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="51"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="19"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
     </row>
     <row r="28" spans="1:3" ht="18">
       <c r="A28" s="22" t="s">
         <v>504</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
     </row>
     <row r="29" spans="1:3" ht="12.75" customHeight="1">
       <c r="A29" s="22"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
     </row>
     <row r="30" spans="1:3" ht="16.5">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="53" t="s">
         <v>505</v>
       </c>
       <c r="B30" s="25"/>
-      <c r="C30" s="55"/>
+      <c r="C30" s="51"/>
     </row>
     <row r="31" spans="1:3" ht="15.75">
-      <c r="A31" s="74" t="s">
+      <c r="A31" s="69" t="s">
         <v>506</v>
       </c>
-      <c r="B31" s="70"/>
-      <c r="C31" s="55"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="51"/>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A32" s="70" t="s">
+      <c r="A32" s="65" t="s">
         <v>507</v>
       </c>
-      <c r="B32" s="70"/>
-      <c r="C32" s="55"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="51"/>
     </row>
     <row r="33" spans="1:2" ht="15.75">
-      <c r="A33" s="70" t="s">
+      <c r="A33" s="65" t="s">
         <v>508</v>
       </c>
-      <c r="B33" s="70"/>
+      <c r="B33" s="65"/>
     </row>
     <row r="34" spans="1:2" ht="16.5">
-      <c r="A34" s="57" t="s">
+      <c r="A34" s="53" t="s">
         <v>509</v>
       </c>
       <c r="B34" s="25"/>
@@ -28834,777 +28684,704 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="23"/>
-      <c r="B36" s="55"/>
+      <c r="B36" s="51"/>
     </row>
     <row r="37" spans="1:2" ht="18">
       <c r="A37" s="22" t="s">
         <v>511</v>
       </c>
-      <c r="B37" s="55"/>
+      <c r="B37" s="51"/>
     </row>
     <row r="38" spans="1:2" ht="14.25" customHeight="1">
       <c r="A38" s="22"/>
-      <c r="B38" s="55"/>
+      <c r="B38" s="51"/>
     </row>
     <row r="39" spans="1:2" ht="16.5">
-      <c r="A39" s="59" t="s">
+      <c r="A39" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="55"/>
+      <c r="B39" s="51"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="55" t="s">
+      <c r="A40" s="51" t="s">
         <v>512</v>
       </c>
-      <c r="B40" s="55"/>
+      <c r="B40" s="51"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="55" t="s">
+      <c r="A41" s="51" t="s">
         <v>513</v>
       </c>
-      <c r="B41" s="55"/>
+      <c r="B41" s="51"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="55" t="s">
+      <c r="A42" s="51" t="s">
         <v>514</v>
       </c>
-      <c r="B42" s="55"/>
+      <c r="B42" s="51"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="55" t="s">
+      <c r="A43" s="51" t="s">
         <v>515</v>
       </c>
-      <c r="B43" s="55"/>
+      <c r="B43" s="51"/>
     </row>
     <row r="44" spans="1:2" ht="12.75" customHeight="1">
-      <c r="A44" s="54"/>
-      <c r="B44" s="55"/>
+      <c r="A44" s="50"/>
+      <c r="B44" s="51"/>
     </row>
     <row r="45" spans="1:2" ht="16.5">
-      <c r="A45" s="59" t="s">
+      <c r="A45" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="55"/>
+      <c r="B45" s="51"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="55" t="s">
+      <c r="A46" s="51" t="s">
         <v>516</v>
       </c>
-      <c r="B46" s="55"/>
+      <c r="B46" s="51"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="55" t="s">
+      <c r="A47" s="51" t="s">
         <v>517</v>
       </c>
-      <c r="B47" s="55"/>
+      <c r="B47" s="51"/>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="55" t="s">
+      <c r="A48" s="51" t="s">
         <v>518</v>
       </c>
-      <c r="B48" s="55"/>
+      <c r="B48" s="51"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="55" t="s">
+      <c r="A49" s="51" t="s">
         <v>519</v>
       </c>
-      <c r="B49" s="55"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
     </row>
     <row r="50" spans="1:4" ht="12" customHeight="1">
-      <c r="A50" s="54"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="55"/>
+      <c r="A50" s="50"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
     </row>
     <row r="51" spans="1:4" ht="16.5">
-      <c r="A51" s="59" t="s">
+      <c r="A51" s="55" t="s">
         <v>520</v>
       </c>
-      <c r="B51" s="55"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="55"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="54" t="s">
+      <c r="A52" s="50" t="s">
         <v>521</v>
       </c>
-      <c r="B52" s="55"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="55"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
     </row>
     <row r="53" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A53" s="54"/>
-      <c r="B53" s="55"/>
-      <c r="C53" s="55"/>
+      <c r="A53" s="50"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="51"/>
       <c r="D53" s="25"/>
     </row>
     <row r="54" spans="1:4" ht="16.5">
-      <c r="A54" s="59" t="s">
+      <c r="A54" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B54" s="55"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="55"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="26" t="s">
         <v>522</v>
       </c>
-      <c r="B55" s="55"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="55"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="26" t="s">
         <v>523</v>
       </c>
-      <c r="B56" s="55"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="55"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="51"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="26" t="s">
         <v>524</v>
       </c>
-      <c r="B57" s="55"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="55"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="54"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="55"/>
-      <c r="D58" s="55"/>
+      <c r="A58" s="50"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
     </row>
     <row r="59" spans="1:4" ht="23.25">
       <c r="A59" s="21" t="s">
         <v>525</v>
       </c>
-      <c r="B59" s="55"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="55"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
     </row>
     <row r="60" spans="1:4" ht="12" customHeight="1">
       <c r="A60" s="21"/>
-      <c r="B60" s="55"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
     </row>
     <row r="61" spans="1:4" ht="15.75">
-      <c r="A61" s="74" t="s">
+      <c r="A61" s="69" t="s">
         <v>526</v>
       </c>
-      <c r="B61" s="74"/>
+      <c r="B61" s="69"/>
       <c r="C61" s="25"/>
-      <c r="D61" s="55"/>
+      <c r="D61" s="51"/>
     </row>
     <row r="62" spans="1:4" ht="15.75">
-      <c r="A62" s="74" t="s">
+      <c r="A62" s="69" t="s">
         <v>527</v>
       </c>
-      <c r="B62" s="74"/>
+      <c r="B62" s="69"/>
       <c r="C62" s="25"/>
-      <c r="D62" s="55"/>
+      <c r="D62" s="51"/>
     </row>
     <row r="63" spans="1:4" ht="15.75">
-      <c r="A63" s="70" t="s">
+      <c r="A63" s="65" t="s">
         <v>528</v>
       </c>
-      <c r="B63" s="70"/>
-      <c r="C63" s="70"/>
-      <c r="D63" s="70"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="65"/>
     </row>
     <row r="64" spans="1:4" ht="15.75">
-      <c r="A64" s="70" t="s">
+      <c r="A64" s="65" t="s">
         <v>529</v>
       </c>
-      <c r="B64" s="70"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
+      <c r="B64" s="65"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="65"/>
     </row>
     <row r="65" spans="1:11" ht="15.75">
-      <c r="A65" s="70" t="s">
+      <c r="A65" s="65" t="s">
         <v>530</v>
       </c>
-      <c r="B65" s="70"/>
+      <c r="B65" s="65"/>
       <c r="C65" s="25"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="55"/>
-      <c r="H65" s="55"/>
-      <c r="I65" s="55"/>
-      <c r="J65" s="55"/>
-      <c r="K65" s="55"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="51"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="51"/>
+      <c r="K65" s="51"/>
     </row>
     <row r="66" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A66" s="54"/>
-      <c r="B66" s="54"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="55"/>
+      <c r="A66" s="50"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="51"/>
       <c r="F66" s="24"/>
-      <c r="G66" s="55"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="55"/>
-      <c r="J66" s="55"/>
-      <c r="K66" s="55"/>
+      <c r="G66" s="51"/>
+      <c r="H66" s="51"/>
+      <c r="I66" s="51"/>
+      <c r="J66" s="51"/>
+      <c r="K66" s="51"/>
     </row>
     <row r="67" spans="1:11" ht="23.25">
       <c r="A67" s="21" t="s">
         <v>531</v>
       </c>
-      <c r="B67" s="55"/>
-      <c r="C67" s="55"/>
-      <c r="D67" s="55"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="55"/>
-      <c r="G67" s="55"/>
-      <c r="H67" s="55"/>
-      <c r="I67" s="55"/>
-      <c r="J67" s="55"/>
-      <c r="K67" s="55"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="51"/>
+      <c r="E67" s="51"/>
+      <c r="F67" s="51"/>
+      <c r="G67" s="51"/>
+      <c r="H67" s="51"/>
+      <c r="I67" s="51"/>
+      <c r="J67" s="51"/>
+      <c r="K67" s="51"/>
     </row>
     <row r="68" spans="1:11" ht="13.5" customHeight="1">
       <c r="A68" s="21"/>
-      <c r="B68" s="55"/>
-      <c r="C68" s="55"/>
-      <c r="D68" s="55"/>
-      <c r="E68" s="55"/>
-      <c r="F68" s="55"/>
-      <c r="G68" s="55"/>
-      <c r="H68" s="55"/>
-      <c r="I68" s="55"/>
-      <c r="J68" s="55"/>
-      <c r="K68" s="55"/>
+      <c r="B68" s="51"/>
+      <c r="C68" s="51"/>
+      <c r="D68" s="51"/>
+      <c r="E68" s="51"/>
+      <c r="F68" s="51"/>
+      <c r="G68" s="51"/>
+      <c r="H68" s="51"/>
+      <c r="I68" s="51"/>
+      <c r="J68" s="51"/>
+      <c r="K68" s="51"/>
     </row>
     <row r="69" spans="1:11" ht="15.75">
-      <c r="A69" s="70" t="s">
+      <c r="A69" s="65" t="s">
         <v>532</v>
       </c>
-      <c r="B69" s="70"/>
+      <c r="B69" s="65"/>
       <c r="C69" s="25"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="55"/>
-      <c r="F69" s="55"/>
-      <c r="G69" s="55"/>
-      <c r="H69" s="55"/>
-      <c r="I69" s="55"/>
-      <c r="J69" s="55"/>
-      <c r="K69" s="55"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="51"/>
+      <c r="H69" s="51"/>
+      <c r="I69" s="51"/>
+      <c r="J69" s="51"/>
+      <c r="K69" s="51"/>
     </row>
     <row r="70" spans="1:11" ht="15.75">
-      <c r="A70" s="70" t="s">
+      <c r="A70" s="65" t="s">
         <v>533</v>
       </c>
-      <c r="B70" s="70"/>
+      <c r="B70" s="65"/>
       <c r="C70" s="25"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="55"/>
-      <c r="F70" s="55"/>
-      <c r="G70" s="55"/>
-      <c r="H70" s="55"/>
-      <c r="I70" s="55"/>
-      <c r="J70" s="55"/>
-      <c r="K70" s="55"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="51"/>
+      <c r="H70" s="51"/>
+      <c r="I70" s="51"/>
+      <c r="J70" s="51"/>
+      <c r="K70" s="51"/>
     </row>
     <row r="71" spans="1:11" ht="15.75">
-      <c r="A71" s="70" t="s">
+      <c r="A71" s="65" t="s">
         <v>534</v>
       </c>
-      <c r="B71" s="70"/>
+      <c r="B71" s="65"/>
       <c r="C71" s="25"/>
-      <c r="D71" s="55"/>
-      <c r="E71" s="55"/>
-      <c r="F71" s="55"/>
-      <c r="G71" s="55"/>
-      <c r="H71" s="55"/>
-      <c r="I71" s="55"/>
-      <c r="J71" s="55"/>
-      <c r="K71" s="55"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="51"/>
+      <c r="F71" s="51"/>
+      <c r="G71" s="51"/>
+      <c r="H71" s="51"/>
+      <c r="I71" s="51"/>
+      <c r="J71" s="51"/>
+      <c r="K71" s="51"/>
     </row>
     <row r="72" spans="1:11" ht="15.75">
-      <c r="A72" s="70" t="s">
+      <c r="A72" s="65" t="s">
         <v>535</v>
       </c>
-      <c r="B72" s="70"/>
-      <c r="C72" s="70"/>
-      <c r="D72" s="55"/>
-      <c r="E72" s="55"/>
-      <c r="F72" s="55"/>
-      <c r="G72" s="55"/>
-      <c r="H72" s="55"/>
-      <c r="I72" s="55"/>
-      <c r="J72" s="55"/>
-      <c r="K72" s="55"/>
+      <c r="B72" s="65"/>
+      <c r="C72" s="65"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="51"/>
+      <c r="F72" s="51"/>
+      <c r="G72" s="51"/>
+      <c r="H72" s="51"/>
+      <c r="I72" s="51"/>
+      <c r="J72" s="51"/>
+      <c r="K72" s="51"/>
     </row>
     <row r="73" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A73" s="54"/>
-      <c r="B73" s="55"/>
-      <c r="C73" s="55"/>
-      <c r="D73" s="55"/>
-      <c r="E73" s="55"/>
-      <c r="F73" s="55"/>
-      <c r="G73" s="55"/>
-      <c r="H73" s="55"/>
-      <c r="I73" s="55"/>
-      <c r="J73" s="55"/>
-      <c r="K73" s="55"/>
+      <c r="A73" s="50"/>
+      <c r="B73" s="51"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="51"/>
+      <c r="E73" s="51"/>
+      <c r="F73" s="51"/>
+      <c r="G73" s="51"/>
+      <c r="H73" s="51"/>
+      <c r="I73" s="51"/>
+      <c r="J73" s="51"/>
+      <c r="K73" s="51"/>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="55"/>
-      <c r="B74" s="55"/>
-      <c r="C74" s="55"/>
-      <c r="D74" s="55"/>
-      <c r="E74" s="55"/>
-      <c r="F74" s="55"/>
-      <c r="G74" s="55"/>
-      <c r="H74" s="55"/>
-      <c r="I74" s="55"/>
-      <c r="J74" s="55"/>
-      <c r="K74" s="55"/>
+      <c r="A74" s="51"/>
+      <c r="B74" s="51"/>
+      <c r="C74" s="51"/>
+      <c r="D74" s="51"/>
+      <c r="E74" s="51"/>
+      <c r="F74" s="51"/>
+      <c r="G74" s="51"/>
+      <c r="H74" s="51"/>
+      <c r="I74" s="51"/>
+      <c r="J74" s="51"/>
+      <c r="K74" s="51"/>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="55"/>
-      <c r="B75" s="55"/>
-      <c r="C75" s="55"/>
-      <c r="D75" s="55"/>
-      <c r="E75" s="55"/>
-      <c r="F75" s="55"/>
-      <c r="G75" s="55"/>
-      <c r="H75" s="55"/>
-      <c r="I75" s="55"/>
-      <c r="J75" s="55"/>
-      <c r="K75" s="55"/>
-    </row>
-    <row r="76" spans="1:11" ht="21">
-      <c r="A76" s="55"/>
-      <c r="B76" s="75" t="s">
-        <v>536</v>
-      </c>
-      <c r="C76" s="75"/>
-      <c r="D76" s="55"/>
-      <c r="E76" s="55"/>
-      <c r="F76" s="55"/>
-      <c r="G76" s="55"/>
-      <c r="H76" s="55"/>
-      <c r="I76" s="55"/>
-      <c r="J76" s="55"/>
-      <c r="K76" s="55"/>
+      <c r="A75" s="51"/>
+      <c r="B75" s="51"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="51"/>
+      <c r="E75" s="51"/>
+      <c r="F75" s="51"/>
+      <c r="G75" s="51"/>
+      <c r="H75" s="51"/>
+      <c r="I75" s="51"/>
+      <c r="J75" s="51"/>
+      <c r="K75" s="51"/>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="51"/>
+      <c r="B76" s="51"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="51"/>
+      <c r="J76" s="51"/>
+      <c r="K76" s="51"/>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="55"/>
-      <c r="B77" s="55"/>
-      <c r="C77" s="55"/>
-      <c r="D77" s="55"/>
-      <c r="E77" s="55"/>
-      <c r="F77" s="55"/>
-      <c r="G77" s="55"/>
-      <c r="H77" s="55"/>
-      <c r="I77" s="55"/>
-      <c r="J77" s="55"/>
-      <c r="K77" s="55"/>
-    </row>
-    <row r="78" spans="1:11" ht="18.75">
-      <c r="A78" s="29" t="s">
-        <v>537</v>
-      </c>
-      <c r="B78" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C78" s="30" t="s">
-        <v>538</v>
-      </c>
-      <c r="D78" s="55"/>
-      <c r="E78" s="55"/>
-      <c r="F78" s="55"/>
-      <c r="G78" s="55"/>
-      <c r="H78" s="55"/>
-      <c r="I78" s="55"/>
-      <c r="J78" s="55"/>
-      <c r="K78" s="55"/>
-    </row>
-    <row r="79" spans="1:11" ht="16.5">
-      <c r="A79" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="B79" s="31"/>
-      <c r="C79" s="32" t="s">
-        <v>539</v>
-      </c>
-      <c r="D79" s="55"/>
-      <c r="E79" s="55"/>
-      <c r="F79" s="55"/>
-      <c r="G79" s="55"/>
-      <c r="H79" s="55"/>
-      <c r="I79" s="55"/>
-      <c r="J79" s="55"/>
-      <c r="K79" s="55"/>
-    </row>
-    <row r="80" spans="1:11" ht="16.5">
-      <c r="A80" s="31" t="s">
-        <v>540</v>
-      </c>
-      <c r="B80" s="31"/>
-      <c r="C80" s="33" t="s">
-        <v>541</v>
-      </c>
-      <c r="D80" s="55"/>
-      <c r="E80" s="55"/>
-      <c r="F80" s="55"/>
-      <c r="G80" s="55"/>
-      <c r="H80" s="55"/>
-      <c r="I80" s="55"/>
-      <c r="J80" s="55"/>
-      <c r="K80" s="55"/>
-    </row>
-    <row r="81" spans="1:11" ht="16.5">
-      <c r="A81" s="31" t="s">
-        <v>542</v>
-      </c>
-      <c r="B81" s="31"/>
-      <c r="C81" s="33" t="s">
-        <v>543</v>
-      </c>
-      <c r="D81" s="55"/>
-      <c r="E81" s="55"/>
-      <c r="F81" s="55"/>
-      <c r="G81" s="55"/>
-      <c r="H81" s="55"/>
-      <c r="I81" s="55"/>
-      <c r="J81" s="55"/>
-      <c r="K81" s="55"/>
-    </row>
-    <row r="82" spans="1:11" ht="16.5">
-      <c r="A82" s="31" t="s">
-        <v>544</v>
-      </c>
-      <c r="B82" s="31"/>
-      <c r="C82" s="33" t="s">
-        <v>545</v>
-      </c>
-      <c r="D82" s="55"/>
-      <c r="E82" s="55"/>
-      <c r="F82" s="55"/>
-      <c r="G82" s="55"/>
-      <c r="H82" s="55"/>
-      <c r="I82" s="55"/>
-      <c r="J82" s="55"/>
-      <c r="K82" s="55"/>
-    </row>
-    <row r="83" spans="1:11" ht="32.25">
-      <c r="A83" s="31" t="s">
-        <v>546</v>
-      </c>
-      <c r="B83" s="31"/>
-      <c r="C83" s="32" t="s">
-        <v>547</v>
-      </c>
-      <c r="D83" s="55"/>
-      <c r="E83" s="55"/>
-      <c r="F83" s="55"/>
-      <c r="G83" s="55"/>
-      <c r="H83" s="55"/>
-      <c r="I83" s="55"/>
-      <c r="J83" s="55"/>
-      <c r="K83" s="55"/>
-    </row>
-    <row r="84" spans="1:11" ht="32.25">
-      <c r="A84" s="31" t="s">
-        <v>548</v>
-      </c>
-      <c r="B84" s="31"/>
-      <c r="C84" s="32" t="s">
-        <v>549</v>
-      </c>
-      <c r="D84" s="55"/>
-      <c r="E84" s="55"/>
-      <c r="F84" s="55"/>
-      <c r="G84" s="55"/>
-      <c r="H84" s="55"/>
-      <c r="I84" s="55"/>
-      <c r="J84" s="55"/>
-      <c r="K84" s="55"/>
-    </row>
-    <row r="85" spans="1:11" ht="16.5">
-      <c r="A85" s="31" t="s">
-        <v>550</v>
-      </c>
-      <c r="B85" s="31"/>
-      <c r="C85" s="32" t="s">
-        <v>551</v>
-      </c>
-      <c r="D85" s="55"/>
-      <c r="E85" s="55"/>
-      <c r="F85" s="55"/>
-      <c r="G85" s="55"/>
-      <c r="H85" s="55"/>
-      <c r="I85" s="55"/>
-      <c r="J85" s="55"/>
-      <c r="K85" s="55"/>
-    </row>
-    <row r="86" spans="1:11" ht="16.5">
-      <c r="A86" s="31" t="s">
-        <v>552</v>
-      </c>
-      <c r="B86" s="31"/>
-      <c r="C86" s="33" t="s">
-        <v>553</v>
-      </c>
-      <c r="D86" s="55"/>
-      <c r="E86" s="55"/>
-      <c r="F86" s="55"/>
-      <c r="G86" s="55"/>
-      <c r="H86" s="55"/>
-      <c r="I86" s="55"/>
-      <c r="J86" s="55"/>
-      <c r="K86" s="55"/>
-    </row>
-    <row r="87" spans="1:11" ht="16.5">
-      <c r="A87" s="31" t="s">
-        <v>554</v>
-      </c>
-      <c r="B87" s="31"/>
-      <c r="C87" s="33" t="s">
-        <v>555</v>
-      </c>
-      <c r="D87" s="55"/>
-      <c r="E87" s="55"/>
-      <c r="F87" s="55"/>
-      <c r="G87" s="55"/>
-      <c r="H87" s="55"/>
-      <c r="I87" s="55"/>
-      <c r="J87" s="55"/>
-      <c r="K87" s="55"/>
-    </row>
-    <row r="88" spans="1:11" ht="16.5">
-      <c r="A88" s="31" t="s">
-        <v>556</v>
-      </c>
-      <c r="B88" s="31"/>
-      <c r="C88" s="32" t="s">
-        <v>557</v>
-      </c>
-      <c r="D88" s="55"/>
-      <c r="E88" s="55"/>
-      <c r="F88" s="55"/>
-      <c r="G88" s="55"/>
-      <c r="H88" s="55"/>
-      <c r="I88" s="55"/>
-      <c r="J88" s="55"/>
-      <c r="K88" s="55"/>
-    </row>
-    <row r="89" spans="1:11" ht="16.5">
-      <c r="A89" s="31" t="s">
-        <v>558</v>
-      </c>
-      <c r="B89" s="31"/>
-      <c r="C89" s="33" t="s">
-        <v>559</v>
-      </c>
-      <c r="D89" s="55"/>
-      <c r="E89" s="55"/>
-      <c r="F89" s="55"/>
-      <c r="G89" s="55"/>
-      <c r="H89" s="55"/>
-      <c r="I89" s="55"/>
-      <c r="J89" s="55"/>
-      <c r="K89" s="55"/>
-    </row>
-    <row r="90" spans="1:11" ht="16.5">
-      <c r="A90" s="31" t="s">
-        <v>560</v>
-      </c>
-      <c r="B90" s="31"/>
-      <c r="C90" s="33" t="s">
-        <v>561</v>
-      </c>
-      <c r="D90" s="55"/>
-      <c r="E90" s="55"/>
-      <c r="F90" s="55"/>
-      <c r="G90" s="55"/>
-      <c r="H90" s="55"/>
-      <c r="I90" s="55"/>
-      <c r="J90" s="55"/>
-      <c r="K90" s="55"/>
-    </row>
-    <row r="91" spans="1:11" ht="16.5">
-      <c r="A91" s="31" t="s">
-        <v>562</v>
-      </c>
-      <c r="B91" s="31"/>
-      <c r="C91" s="33" t="s">
-        <v>563</v>
-      </c>
-      <c r="D91" s="55"/>
-      <c r="E91" s="55"/>
-      <c r="F91" s="55"/>
-      <c r="G91" s="55"/>
-      <c r="H91" s="55"/>
-      <c r="I91" s="55"/>
-      <c r="J91" s="55"/>
-      <c r="K91" s="55"/>
-    </row>
-    <row r="92" spans="1:11" ht="16.5">
-      <c r="A92" s="31" t="s">
-        <v>564</v>
-      </c>
-      <c r="B92" s="31"/>
-      <c r="C92" s="33" t="s">
-        <v>565</v>
-      </c>
-      <c r="D92" s="55"/>
-      <c r="E92" s="55"/>
-      <c r="F92" s="55"/>
-      <c r="G92" s="55"/>
-      <c r="H92" s="55"/>
-      <c r="I92" s="55"/>
-      <c r="J92" s="55"/>
-      <c r="K92" s="55"/>
-    </row>
-    <row r="93" spans="1:11" ht="16.5">
-      <c r="A93" s="31" t="s">
-        <v>566</v>
-      </c>
-      <c r="B93" s="31"/>
-      <c r="C93" s="33" t="s">
-        <v>567</v>
-      </c>
-      <c r="D93" s="55"/>
-      <c r="E93" s="55"/>
-      <c r="F93" s="55"/>
-      <c r="G93" s="55"/>
-      <c r="H93" s="55"/>
-      <c r="I93" s="55"/>
-      <c r="J93" s="55"/>
-      <c r="K93" s="55"/>
-    </row>
-    <row r="94" spans="1:11" ht="16.5">
-      <c r="A94" s="31" t="s">
-        <v>568</v>
-      </c>
-      <c r="B94" s="31"/>
-      <c r="C94" s="33" t="s">
-        <v>569</v>
-      </c>
-      <c r="D94" s="55"/>
-      <c r="E94" s="55"/>
-      <c r="F94" s="55"/>
-      <c r="G94" s="55"/>
-      <c r="H94" s="55"/>
-      <c r="I94" s="55"/>
-      <c r="J94" s="55"/>
-      <c r="K94" s="55"/>
+      <c r="A77" s="51"/>
+      <c r="B77" s="51"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="51"/>
+      <c r="H77" s="51"/>
+      <c r="I77" s="51"/>
+      <c r="J77" s="51"/>
+      <c r="K77" s="51"/>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="51"/>
+      <c r="B78" s="51"/>
+      <c r="C78" s="51"/>
+      <c r="D78" s="51"/>
+      <c r="E78" s="51"/>
+      <c r="F78" s="51"/>
+      <c r="G78" s="51"/>
+      <c r="H78" s="51"/>
+      <c r="I78" s="51"/>
+      <c r="J78" s="51"/>
+      <c r="K78" s="51"/>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="51"/>
+      <c r="B79" s="51"/>
+      <c r="C79" s="51"/>
+      <c r="D79" s="51"/>
+      <c r="E79" s="51"/>
+      <c r="F79" s="51"/>
+      <c r="G79" s="51"/>
+      <c r="H79" s="51"/>
+      <c r="I79" s="51"/>
+      <c r="J79" s="51"/>
+      <c r="K79" s="51"/>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="51"/>
+      <c r="B80" s="51"/>
+      <c r="C80" s="51"/>
+      <c r="D80" s="51"/>
+      <c r="E80" s="51"/>
+      <c r="F80" s="51"/>
+      <c r="G80" s="51"/>
+      <c r="H80" s="51"/>
+      <c r="I80" s="51"/>
+      <c r="J80" s="51"/>
+      <c r="K80" s="51"/>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="51"/>
+      <c r="B81" s="51"/>
+      <c r="C81" s="51"/>
+      <c r="D81" s="51"/>
+      <c r="E81" s="51"/>
+      <c r="F81" s="51"/>
+      <c r="G81" s="51"/>
+      <c r="H81" s="51"/>
+      <c r="I81" s="51"/>
+      <c r="J81" s="51"/>
+      <c r="K81" s="51"/>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="51"/>
+      <c r="B82" s="51"/>
+      <c r="C82" s="51"/>
+      <c r="D82" s="51"/>
+      <c r="E82" s="51"/>
+      <c r="F82" s="51"/>
+      <c r="G82" s="51"/>
+      <c r="H82" s="51"/>
+      <c r="I82" s="51"/>
+      <c r="J82" s="51"/>
+      <c r="K82" s="51"/>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" s="51"/>
+      <c r="B83" s="51"/>
+      <c r="C83" s="51"/>
+      <c r="D83" s="51"/>
+      <c r="E83" s="51"/>
+      <c r="F83" s="51"/>
+      <c r="G83" s="51"/>
+      <c r="H83" s="51"/>
+      <c r="I83" s="51"/>
+      <c r="J83" s="51"/>
+      <c r="K83" s="51"/>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="51"/>
+      <c r="B84" s="51"/>
+      <c r="C84" s="51"/>
+      <c r="D84" s="51"/>
+      <c r="E84" s="51"/>
+      <c r="F84" s="51"/>
+      <c r="G84" s="51"/>
+      <c r="H84" s="51"/>
+      <c r="I84" s="51"/>
+      <c r="J84" s="51"/>
+      <c r="K84" s="51"/>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="51"/>
+      <c r="B85" s="51"/>
+      <c r="C85" s="51"/>
+      <c r="D85" s="51"/>
+      <c r="E85" s="51"/>
+      <c r="F85" s="51"/>
+      <c r="G85" s="51"/>
+      <c r="H85" s="51"/>
+      <c r="I85" s="51"/>
+      <c r="J85" s="51"/>
+      <c r="K85" s="51"/>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="51"/>
+      <c r="B86" s="51"/>
+      <c r="C86" s="51"/>
+      <c r="D86" s="51"/>
+      <c r="E86" s="51"/>
+      <c r="F86" s="51"/>
+      <c r="G86" s="51"/>
+      <c r="H86" s="51"/>
+      <c r="I86" s="51"/>
+      <c r="J86" s="51"/>
+      <c r="K86" s="51"/>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="51"/>
+      <c r="B87" s="51"/>
+      <c r="C87" s="51"/>
+      <c r="D87" s="51"/>
+      <c r="E87" s="51"/>
+      <c r="F87" s="51"/>
+      <c r="G87" s="51"/>
+      <c r="H87" s="51"/>
+      <c r="I87" s="51"/>
+      <c r="J87" s="51"/>
+      <c r="K87" s="51"/>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="51"/>
+      <c r="B88" s="51"/>
+      <c r="C88" s="51"/>
+      <c r="D88" s="51"/>
+      <c r="E88" s="51"/>
+      <c r="F88" s="51"/>
+      <c r="G88" s="51"/>
+      <c r="H88" s="51"/>
+      <c r="I88" s="51"/>
+      <c r="J88" s="51"/>
+      <c r="K88" s="51"/>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="51"/>
+      <c r="B89" s="51"/>
+      <c r="C89" s="51"/>
+      <c r="D89" s="51"/>
+      <c r="E89" s="51"/>
+      <c r="F89" s="51"/>
+      <c r="G89" s="51"/>
+      <c r="H89" s="51"/>
+      <c r="I89" s="51"/>
+      <c r="J89" s="51"/>
+      <c r="K89" s="51"/>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="51"/>
+      <c r="B90" s="51"/>
+      <c r="C90" s="51"/>
+      <c r="D90" s="51"/>
+      <c r="E90" s="51"/>
+      <c r="F90" s="51"/>
+      <c r="G90" s="51"/>
+      <c r="H90" s="51"/>
+      <c r="I90" s="51"/>
+      <c r="J90" s="51"/>
+      <c r="K90" s="51"/>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="51"/>
+      <c r="B91" s="51"/>
+      <c r="C91" s="51"/>
+      <c r="D91" s="51"/>
+      <c r="E91" s="51"/>
+      <c r="F91" s="51"/>
+      <c r="G91" s="51"/>
+      <c r="H91" s="51"/>
+      <c r="I91" s="51"/>
+      <c r="J91" s="51"/>
+      <c r="K91" s="51"/>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="51"/>
+      <c r="B92" s="51"/>
+      <c r="C92" s="51"/>
+      <c r="D92" s="51"/>
+      <c r="E92" s="51"/>
+      <c r="F92" s="51"/>
+      <c r="G92" s="51"/>
+      <c r="H92" s="51"/>
+      <c r="I92" s="51"/>
+      <c r="J92" s="51"/>
+      <c r="K92" s="51"/>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="51"/>
+      <c r="B93" s="51"/>
+      <c r="C93" s="51"/>
+      <c r="D93" s="51"/>
+      <c r="E93" s="51"/>
+      <c r="F93" s="51"/>
+      <c r="G93" s="51"/>
+      <c r="H93" s="51"/>
+      <c r="I93" s="51"/>
+      <c r="J93" s="51"/>
+      <c r="K93" s="51"/>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="51"/>
+      <c r="B94" s="51"/>
+      <c r="C94" s="51"/>
+      <c r="D94" s="51"/>
+      <c r="E94" s="51"/>
+      <c r="F94" s="51"/>
+      <c r="G94" s="51"/>
+      <c r="H94" s="51"/>
+      <c r="I94" s="51"/>
+      <c r="J94" s="51"/>
+      <c r="K94" s="51"/>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" s="55"/>
-      <c r="B95" s="55"/>
-      <c r="C95" s="55"/>
-      <c r="D95" s="55"/>
-      <c r="E95" s="55"/>
-      <c r="F95" s="55"/>
-      <c r="G95" s="55"/>
-      <c r="H95" s="55"/>
-      <c r="I95" s="55"/>
-      <c r="J95" s="55"/>
-      <c r="K95" s="55"/>
+      <c r="A95" s="51"/>
+      <c r="B95" s="51"/>
+      <c r="C95" s="51"/>
+      <c r="D95" s="51"/>
+      <c r="E95" s="51"/>
+      <c r="F95" s="51"/>
+      <c r="G95" s="51"/>
+      <c r="H95" s="51"/>
+      <c r="I95" s="51"/>
+      <c r="J95" s="51"/>
+      <c r="K95" s="51"/>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="55"/>
-      <c r="B96" s="55"/>
-      <c r="C96" s="55"/>
-      <c r="D96" s="55"/>
-      <c r="E96" s="55"/>
-      <c r="F96" s="55"/>
-      <c r="G96" s="55"/>
-      <c r="H96" s="55"/>
-      <c r="I96" s="55"/>
-      <c r="J96" s="55"/>
-      <c r="K96" s="55"/>
+      <c r="A96" s="51"/>
+      <c r="B96" s="51"/>
+      <c r="C96" s="51"/>
+      <c r="D96" s="51"/>
+      <c r="E96" s="51"/>
+      <c r="F96" s="51"/>
+      <c r="G96" s="51"/>
+      <c r="H96" s="51"/>
+      <c r="I96" s="51"/>
+      <c r="J96" s="51"/>
+      <c r="K96" s="51"/>
     </row>
     <row r="97" spans="1:11">
-      <c r="A97" s="55"/>
-      <c r="B97" s="55"/>
-      <c r="C97" s="55"/>
-      <c r="D97" s="55"/>
-      <c r="E97" s="55"/>
-      <c r="F97" s="55"/>
-      <c r="G97" s="55"/>
-      <c r="H97" s="55"/>
-      <c r="I97" s="55"/>
-      <c r="J97" s="55"/>
-      <c r="K97" s="55"/>
+      <c r="A97" s="51"/>
+      <c r="B97" s="51"/>
+      <c r="C97" s="51"/>
+      <c r="D97" s="51"/>
+      <c r="E97" s="51"/>
+      <c r="F97" s="51"/>
+      <c r="G97" s="51"/>
+      <c r="H97" s="51"/>
+      <c r="I97" s="51"/>
+      <c r="J97" s="51"/>
+      <c r="K97" s="51"/>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="55"/>
-      <c r="B98" s="55"/>
-      <c r="C98" s="55"/>
-      <c r="D98" s="55"/>
-      <c r="E98" s="55"/>
-      <c r="F98" s="55"/>
-      <c r="G98" s="55"/>
-      <c r="H98" s="55"/>
-      <c r="I98" s="55"/>
-      <c r="J98" s="55"/>
-      <c r="K98" s="55"/>
+      <c r="A98" s="51"/>
+      <c r="B98" s="51"/>
+      <c r="C98" s="51"/>
+      <c r="D98" s="51"/>
+      <c r="E98" s="51"/>
+      <c r="F98" s="51"/>
+      <c r="G98" s="51"/>
+      <c r="H98" s="51"/>
+      <c r="I98" s="51"/>
+      <c r="J98" s="51"/>
+      <c r="K98" s="51"/>
     </row>
     <row r="99" spans="1:11">
-      <c r="A99" s="55"/>
-      <c r="B99" s="55"/>
-      <c r="C99" s="55"/>
-      <c r="D99" s="55"/>
-      <c r="E99" s="55"/>
-      <c r="F99" s="55"/>
-      <c r="G99" s="55"/>
-      <c r="H99" s="55"/>
-      <c r="I99" s="55"/>
-      <c r="J99" s="55"/>
-      <c r="K99" s="55"/>
+      <c r="A99" s="51"/>
+      <c r="B99" s="51"/>
+      <c r="C99" s="51"/>
+      <c r="D99" s="51"/>
+      <c r="E99" s="51"/>
+      <c r="F99" s="51"/>
+      <c r="G99" s="51"/>
+      <c r="H99" s="51"/>
+      <c r="I99" s="51"/>
+      <c r="J99" s="51"/>
+      <c r="K99" s="51"/>
     </row>
     <row r="100" spans="1:11">
-      <c r="A100" s="55"/>
-      <c r="B100" s="55"/>
-      <c r="C100" s="55"/>
-      <c r="D100" s="55"/>
-      <c r="E100" s="55"/>
-      <c r="F100" s="55"/>
-      <c r="G100" s="55"/>
-      <c r="H100" s="55"/>
-      <c r="I100" s="55"/>
-      <c r="J100" s="55"/>
-      <c r="K100" s="55"/>
+      <c r="A100" s="51"/>
+      <c r="B100" s="51"/>
+      <c r="C100" s="51"/>
+      <c r="D100" s="51"/>
+      <c r="E100" s="51"/>
+      <c r="F100" s="51"/>
+      <c r="G100" s="51"/>
+      <c r="H100" s="51"/>
+      <c r="I100" s="51"/>
+      <c r="J100" s="51"/>
+      <c r="K100" s="51"/>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="55"/>
-      <c r="B101" s="55"/>
-      <c r="C101" s="55"/>
-      <c r="D101" s="55"/>
-      <c r="E101" s="55"/>
-      <c r="F101" s="55"/>
-      <c r="G101" s="55"/>
-      <c r="H101" s="55"/>
-      <c r="I101" s="55"/>
-      <c r="J101" s="55"/>
-      <c r="K101" s="55"/>
+      <c r="A101" s="51"/>
+      <c r="B101" s="51"/>
+      <c r="C101" s="51"/>
+      <c r="D101" s="51"/>
+      <c r="E101" s="51"/>
+      <c r="F101" s="51"/>
+      <c r="G101" s="51"/>
+      <c r="H101" s="51"/>
+      <c r="I101" s="51"/>
+      <c r="J101" s="51"/>
+      <c r="K101" s="51"/>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="55"/>
-      <c r="B102" s="55"/>
-      <c r="C102" s="55"/>
-      <c r="D102" s="55"/>
-      <c r="E102" s="55"/>
-      <c r="F102" s="55"/>
-      <c r="G102" s="55"/>
-      <c r="H102" s="55"/>
-      <c r="I102" s="55"/>
-      <c r="J102" s="55"/>
-      <c r="K102" s="55"/>
+      <c r="A102" s="51"/>
+      <c r="B102" s="51"/>
+      <c r="C102" s="51"/>
+      <c r="D102" s="51"/>
+      <c r="E102" s="51"/>
+      <c r="F102" s="51"/>
+      <c r="G102" s="51"/>
+      <c r="H102" s="51"/>
+      <c r="I102" s="51"/>
+      <c r="J102" s="51"/>
+      <c r="K102" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="B76:C76"/>
+  <mergeCells count="21">
     <mergeCell ref="A70:B70"/>
     <mergeCell ref="A71:B71"/>
     <mergeCell ref="A72:C72"/>
@@ -29628,8 +29405,5 @@
     <mergeCell ref="B1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>